--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2084.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2084.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.325531059426563</v>
+        <v>2.204710006713867</v>
       </c>
       <c r="B1">
-        <v>3.778732771799889</v>
+        <v>3.37756872177124</v>
       </c>
       <c r="C1">
-        <v>3.396737499993997</v>
+        <v>2.966285467147827</v>
       </c>
       <c r="D1">
-        <v>3.73653400757664</v>
+        <v>3.222946882247925</v>
       </c>
       <c r="E1">
-        <v>1.355771511621468</v>
+        <v>2.110574960708618</v>
       </c>
     </row>
   </sheetData>
